--- a/data/case1/18/Plm1_3.xlsx
+++ b/data/case1/18/Plm1_3.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.34711038275420947</v>
+        <v>-0.35360442874736009</v>
       </c>
       <c r="B1" s="0">
-        <v>0.34638538134186092</v>
+        <v>0.35283020095378959</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.3002738050903524</v>
+        <v>-0.27471834282242469</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29738653705217644</v>
+        <v>0.27214746042431059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.16005615800432338</v>
+        <v>-0.16919886825060004</v>
       </c>
       <c r="B3" s="0">
-        <v>0.15944560835741584</v>
+        <v>0.16849953760311465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.14744560841682031</v>
+        <v>-0.15649953777843884</v>
       </c>
       <c r="B4" s="0">
-        <v>0.14690741753361181</v>
+        <v>0.15587985603348109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14090741773926219</v>
+        <v>-0.14987985673548021</v>
       </c>
       <c r="B5" s="0">
-        <v>0.13984468766419322</v>
+        <v>0.14864875967617674</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.023435861922465939</v>
+        <v>-0.048440905681081059</v>
       </c>
       <c r="B6" s="0">
-        <v>0.02342233188719911</v>
+        <v>0.048411473917091108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0034223321398201278</v>
+        <v>-0.028411474760392963</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0034138802943513014</v>
+        <v>0.028374061174256227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.016586119452898451</v>
+        <v>-0.0083740620200618565</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.016605515192405385</v>
+        <v>0.0083560936045357082</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.022605514981297148</v>
+        <v>-0.0023560943323879258</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.022640767268327089</v>
+        <v>0.0023381434464164741</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.028640767058348615</v>
+        <v>0.0036618558256122924</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.028648937559957233</v>
+        <v>-0.0036611376115516236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.033148937354589236</v>
+        <v>0.0081611368963443454</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.033175193372951384</v>
+        <v>-0.0081707274157096776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.039175193163549338</v>
+        <v>0.014170726688131019</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.039328308313648197</v>
+        <v>-0.014249222138232209</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.045328308107058568</v>
+        <v>-0.058561165142589466</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.045404811613539486</v>
+        <v>0.058438062536215085</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.057404811390612487</v>
+        <v>-0.046438063315964229</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.057544635111359987</v>
+        <v>0.046347294891166513</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.063544634907509945</v>
+        <v>-0.040347295624047597</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.063758202733022351</v>
+        <v>0.040256632772782908</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.069758202531367886</v>
+        <v>-0.01502675052828284</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.070200785804066967</v>
+        <v>0.015004070216859677</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.076200785606793886</v>
+        <v>-0.0090040709569620958</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.076496732023293212</v>
+        <v>0.0089999992338700707</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036111576456338668</v>
+        <v>-0.068111858829201566</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036097130482517059</v>
+        <v>0.06806628245635693</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027097130684640813</v>
+        <v>-0.027096526772385943</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027014008833434744</v>
+        <v>0.027013309540879771</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.01801400903746142</v>
+        <v>-0.018013310237250835</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004306254077562</v>
+        <v>0.018004259495393526</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043064584346411</v>
+        <v>-0.0090042601926807464</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999997954173239</v>
+        <v>0.0089999993021576685</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093950960954519047</v>
+        <v>-0.093948592883801751</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093636534475564304</v>
+        <v>0.093635574191473836</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084636534686620024</v>
+        <v>-0.08463557490725826</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127320676098627</v>
+        <v>0.084126920916991033</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127320986863559</v>
+        <v>-0.042126921924260152</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999687466705</v>
+        <v>0.041999998987352072</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.11040882595328583</v>
+        <v>-0.094207854718138861</v>
       </c>
       <c r="B25" s="0">
-        <v>0.11024432565137232</v>
+        <v>0.094090628998859671</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088712406376579622</v>
+        <v>-0.088090629723811986</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088537313027710951</v>
+        <v>0.087944575990810847</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082537313241490828</v>
+        <v>-0.08194457671891664</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081965062444682157</v>
+        <v>0.081461636120741865</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075965062663022387</v>
+        <v>-0.075461636863244586</v>
       </c>
       <c r="B28" s="0">
-        <v>0.075589674849591226</v>
+        <v>0.075148563876126673</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.063589675088515207</v>
+        <v>-0.063148564678643382</v>
       </c>
       <c r="B29" s="0">
-        <v>0.063425840661212263</v>
+        <v>0.06301261266647451</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.043425840925150005</v>
+        <v>-0.043012613542025679</v>
       </c>
       <c r="B30" s="0">
-        <v>0.043223979506863408</v>
+        <v>0.042661343303768806</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.028223979758474016</v>
+        <v>-0.027661344144060962</v>
       </c>
       <c r="B31" s="0">
-        <v>0.02817194785690802</v>
+        <v>0.027554955344815113</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.007171948126464045</v>
+        <v>-0.0060006435258497248</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0071103370048861692</v>
+        <v>0.0059999992348416242</v>
       </c>
     </row>
   </sheetData>
